--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Arf1-Insr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Arf1-Insr.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>77.63718533333333</v>
+        <v>24.999262</v>
       </c>
       <c r="H2">
-        <v>232.911556</v>
+        <v>74.997786</v>
       </c>
       <c r="I2">
-        <v>0.4513549673384918</v>
+        <v>0.2094245171924971</v>
       </c>
       <c r="J2">
-        <v>0.4513549673384918</v>
+        <v>0.209424517192497</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.33599166666667</v>
+        <v>8.533046666666666</v>
       </c>
       <c r="N2">
-        <v>52.007975</v>
+        <v>25.59914</v>
       </c>
       <c r="O2">
-        <v>0.4573561888773979</v>
+        <v>0.2932132236642383</v>
       </c>
       <c r="P2">
-        <v>0.4573561888773979</v>
+        <v>0.2932132236642383</v>
       </c>
       <c r="Q2">
-        <v>1345.917597962122</v>
+        <v>213.3198692782267</v>
       </c>
       <c r="R2">
-        <v>12113.2583816591</v>
+        <v>1919.87882350404</v>
       </c>
       <c r="S2">
-        <v>0.206429987692815</v>
+        <v>0.06140603780033876</v>
       </c>
       <c r="T2">
-        <v>0.206429987692815</v>
+        <v>0.06140603780033875</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>77.63718533333333</v>
+        <v>24.999262</v>
       </c>
       <c r="H3">
-        <v>232.911556</v>
+        <v>74.997786</v>
       </c>
       <c r="I3">
-        <v>0.4513549673384918</v>
+        <v>0.2094245171924971</v>
       </c>
       <c r="J3">
-        <v>0.4513549673384918</v>
+        <v>0.209424517192497</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>27.233122</v>
       </c>
       <c r="O3">
-        <v>0.2394870573052156</v>
+        <v>0.3119288965200195</v>
       </c>
       <c r="P3">
-        <v>0.2394870573052156</v>
+        <v>0.3119288965200194</v>
       </c>
       <c r="Q3">
-        <v>704.7676466397592</v>
+        <v>226.9359839853214</v>
       </c>
       <c r="R3">
-        <v>6342.908819757833</v>
+        <v>2042.423855867892</v>
       </c>
       <c r="S3">
-        <v>0.1080936729279871</v>
+        <v>0.06532555855209346</v>
       </c>
       <c r="T3">
-        <v>0.1080936729279871</v>
+        <v>0.06532555855209343</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>77.63718533333333</v>
+        <v>24.999262</v>
       </c>
       <c r="H4">
-        <v>232.911556</v>
+        <v>74.997786</v>
       </c>
       <c r="I4">
-        <v>0.4513549673384918</v>
+        <v>0.2094245171924971</v>
       </c>
       <c r="J4">
-        <v>0.4513549673384918</v>
+        <v>0.209424517192497</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>34.473282</v>
       </c>
       <c r="O4">
-        <v>0.3031567538173866</v>
+        <v>0.3948578798157423</v>
       </c>
       <c r="P4">
-        <v>0.3031567538173866</v>
+        <v>0.3948578798157423</v>
       </c>
       <c r="Q4">
-        <v>892.1361945607546</v>
+        <v>287.268869572628</v>
       </c>
       <c r="R4">
-        <v>8029.225751046792</v>
+        <v>2585.419826153652</v>
       </c>
       <c r="S4">
-        <v>0.1368313067176898</v>
+        <v>0.08269292084006485</v>
       </c>
       <c r="T4">
-        <v>0.1368313067176898</v>
+        <v>0.08269292084006484</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>187.224476</v>
       </c>
       <c r="I5">
-        <v>0.3628188257432201</v>
+        <v>0.522807373179233</v>
       </c>
       <c r="J5">
-        <v>0.3628188257432201</v>
+        <v>0.5228073731792329</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.33599166666667</v>
+        <v>8.533046666666666</v>
       </c>
       <c r="N5">
-        <v>52.007975</v>
+        <v>25.59914</v>
       </c>
       <c r="O5">
-        <v>0.4573561888773979</v>
+        <v>0.2932132236642383</v>
       </c>
       <c r="P5">
-        <v>0.4573561888773979</v>
+        <v>0.2932132236642383</v>
       </c>
       <c r="Q5">
-        <v>1081.907318577345</v>
+        <v>532.5317302834044</v>
       </c>
       <c r="R5">
-        <v>9737.165867196101</v>
+        <v>4792.78557255064</v>
       </c>
       <c r="S5">
-        <v>0.1659374353948919</v>
+        <v>0.1532940352453153</v>
       </c>
       <c r="T5">
-        <v>0.1659374353948919</v>
+        <v>0.1532940352453153</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>187.224476</v>
       </c>
       <c r="I6">
-        <v>0.3628188257432201</v>
+        <v>0.522807373179233</v>
       </c>
       <c r="J6">
-        <v>0.3628188257432201</v>
+        <v>0.5228073731792329</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>27.233122</v>
       </c>
       <c r="O6">
-        <v>0.2394870573052156</v>
+        <v>0.3119288965200195</v>
       </c>
       <c r="P6">
-        <v>0.2394870573052156</v>
+        <v>0.3119288965200194</v>
       </c>
       <c r="Q6">
         <v>566.5229995882304</v>
@@ -818,10 +818,10 @@
         <v>5098.706996294072</v>
       </c>
       <c r="S6">
-        <v>0.08689041291217758</v>
+        <v>0.1630787270083282</v>
       </c>
       <c r="T6">
-        <v>0.08689041291217758</v>
+        <v>0.1630787270083281</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>187.224476</v>
       </c>
       <c r="I7">
-        <v>0.3628188257432201</v>
+        <v>0.522807373179233</v>
       </c>
       <c r="J7">
-        <v>0.3628188257432201</v>
+        <v>0.5228073731792329</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>34.473282</v>
       </c>
       <c r="O7">
-        <v>0.3031567538173866</v>
+        <v>0.3948578798157423</v>
       </c>
       <c r="P7">
-        <v>0.3031567538173866</v>
+        <v>0.3948578798157423</v>
       </c>
       <c r="Q7">
         <v>717.1380176055814</v>
@@ -880,10 +880,10 @@
         <v>6454.242158450232</v>
       </c>
       <c r="S7">
-        <v>0.1099909774361507</v>
+        <v>0.2064346109255895</v>
       </c>
       <c r="T7">
-        <v>0.1099909774361507</v>
+        <v>0.2064346109255895</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>95.891425</v>
       </c>
       <c r="I8">
-        <v>0.1858262069182881</v>
+        <v>0.2677681096282701</v>
       </c>
       <c r="J8">
-        <v>0.1858262069182881</v>
+        <v>0.2677681096282701</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.33599166666667</v>
+        <v>8.533046666666666</v>
       </c>
       <c r="N8">
-        <v>52.007975</v>
+        <v>25.59914</v>
       </c>
       <c r="O8">
-        <v>0.4573561888773979</v>
+        <v>0.2932132236642383</v>
       </c>
       <c r="P8">
-        <v>0.4573561888773979</v>
+        <v>0.2932132236642383</v>
       </c>
       <c r="Q8">
-        <v>554.1243149015972</v>
+        <v>272.7486681527222</v>
       </c>
       <c r="R8">
-        <v>4987.118834114375</v>
+        <v>2454.7380133745</v>
       </c>
       <c r="S8">
-        <v>0.08498876578969099</v>
+        <v>0.07851315061858423</v>
       </c>
       <c r="T8">
-        <v>0.08498876578969097</v>
+        <v>0.07851315061858423</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>95.891425</v>
       </c>
       <c r="I9">
-        <v>0.1858262069182881</v>
+        <v>0.2677681096282701</v>
       </c>
       <c r="J9">
-        <v>0.1858262069182881</v>
+        <v>0.2677681096282701</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>27.233122</v>
       </c>
       <c r="O9">
-        <v>0.2394870573052156</v>
+        <v>0.3119288965200195</v>
       </c>
       <c r="P9">
-        <v>0.2394870573052156</v>
+        <v>0.3119288965200194</v>
       </c>
       <c r="Q9">
         <v>290.1580973087611</v>
@@ -1004,10 +1004,10 @@
         <v>2611.42287577885</v>
       </c>
       <c r="S9">
-        <v>0.04450297146505091</v>
+        <v>0.08352461095959789</v>
       </c>
       <c r="T9">
-        <v>0.0445029714650509</v>
+        <v>0.08352461095959787</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>95.891425</v>
       </c>
       <c r="I10">
-        <v>0.1858262069182881</v>
+        <v>0.2677681096282701</v>
       </c>
       <c r="J10">
-        <v>0.1858262069182881</v>
+        <v>0.2677681096282701</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>34.473282</v>
       </c>
       <c r="O10">
-        <v>0.3031567538173866</v>
+        <v>0.3948578798157423</v>
       </c>
       <c r="P10">
-        <v>0.3031567538173866</v>
+        <v>0.3948578798157423</v>
       </c>
       <c r="Q10">
         <v>367.2991261563166</v>
@@ -1066,10 +1066,10 @@
         <v>3305.69213540685</v>
       </c>
       <c r="S10">
-        <v>0.0563344696635462</v>
+        <v>0.105730348050088</v>
       </c>
       <c r="T10">
-        <v>0.0563344696635462</v>
+        <v>0.105730348050088</v>
       </c>
     </row>
   </sheetData>
